--- a/patient_data/patient_96.xlsx
+++ b/patient_data/patient_96.xlsx
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
